--- a/FPOO/Funções/Exercícios_Aula9/atv1.xlsx
+++ b/FPOO/Funções/Exercícios_Aula9/atv1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desenvolvimento-de-sistemas\FPOO\Funções\Exercícios_Aula9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F008B70-1989-4936-BC8A-08B9B01D6226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278C36E-6569-4C0B-88D8-1B1AF4733130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,13 +478,13 @@
       </c>
       <c r="E2" s="4">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="str">
         <f ca="1">VLOOKUP(E2,C2:D11,2,FALSE)</f>
-        <v>Mateus</v>
+        <v>Hemilly</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
